--- a/LR11/lr11.xlsx
+++ b/LR11/lr11.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Чек-лист + Дефекты'!$A$1:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -91,9 +91,6 @@
     <t>Важен критерий: задукоментированы все дефекты, исправлены все дефекты с приоритетом выше Critical</t>
   </si>
   <si>
-    <t>Тест-план по системному тестированию Банковской системы</t>
-  </si>
-  <si>
     <t>Обеспечение корректного функционирования системы по работе со счетами клиентов</t>
   </si>
   <si>
@@ -203,12 +200,15 @@
   </si>
   <si>
     <t>emty password</t>
+  </si>
+  <si>
+    <t>Тест-план по системному тестированию Фильмотеки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,6 +544,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -566,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -634,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,7 +669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -929,7 +929,7 @@
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1011,58 +1011,58 @@
     <row r="10" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="13">
         <v>2</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="30">
         <v>0.5</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="35"/>
       <c r="L10" s="15"/>
       <c r="AS10" s="1"/>
     </row>
     <row r="11" spans="1:45" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="30">
         <v>0.5</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="K11" s="36"/>
       <c r="L11" s="15"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1101,29 +1101,29 @@
     <row r="12" spans="1:45" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="44">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34">
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="30">
         <v>0.5</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="K12" s="36"/>
       <c r="L12" s="15"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1162,29 +1162,29 @@
     <row r="13" spans="1:45" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="30">
         <v>0.5</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="K13" s="37"/>
       <c r="L13" s="15"/>
       <c r="AS13" s="1"/>
     </row>
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1326,26 +1326,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="26">
         <v>43956</v>
       </c>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1377,7 +1377,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27"/>
@@ -1390,7 +1390,7 @@
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="27"/>
@@ -1403,7 +1403,7 @@
     <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27"/>
@@ -1416,7 +1416,7 @@
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="27"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1442,7 +1442,7 @@
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="27"/>
@@ -1456,7 +1456,7 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="24"/>
@@ -1469,7 +1469,7 @@
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="24"/>
@@ -1482,7 +1482,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="24"/>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1502,7 +1502,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="27"/>
@@ -1511,7 +1511,7 @@
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="27"/>
     </row>
@@ -1519,14 +1519,14 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27"/>
@@ -1535,14 +1535,14 @@
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="27"/>
@@ -1551,13 +1551,13 @@
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1566,7 +1566,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="27"/>
@@ -1574,7 +1574,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="27"/>
@@ -1582,7 +1582,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="27"/>
@@ -1590,7 +1590,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="27"/>
@@ -1598,7 +1598,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="27"/>
@@ -1606,7 +1606,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="27"/>
